--- a/Базы и хранилища данных/Зачёт/Группы сетей.xlsx
+++ b/Базы и хранилища данных/Зачёт/Группы сетей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\ASU\Базы и хранилища данных\Зачёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D29C0-E824-42F9-9BE9-B812854AF689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444226C-5A10-443A-8F59-D14F50B0603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Название сети</t>
   </si>
@@ -117,21 +117,12 @@
     <t>45.43.234.192/27</t>
   </si>
   <si>
-    <t>45.43.36.0/24</t>
-  </si>
-  <si>
-    <t>45.43.226.144/28</t>
-  </si>
-  <si>
     <t>Servers group Net 1</t>
   </si>
   <si>
     <t>Сети серверов 1</t>
   </si>
   <si>
-    <t>45.43.127.224/27</t>
-  </si>
-  <si>
     <t>45.43.126.224/27</t>
   </si>
   <si>
@@ -160,6 +151,9 @@
   </si>
   <si>
     <t>Users Net 1</t>
+  </si>
+  <si>
+    <t>45.43.36.0/24 45.43.36.0/24</t>
   </si>
 </sst>
 </file>
@@ -568,14 +562,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A41A710-BE71-4D26-8D60-C0AA8BD3B5FD}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.140625" customWidth="1"/>
     <col min="2" max="2" width="85.5703125" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -592,9 +587,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
@@ -604,7 +599,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
@@ -612,7 +607,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="10"/>
       <c r="C4" s="4" t="s">
@@ -620,7 +615,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="10"/>
       <c r="C5" s="4" t="s">
@@ -628,7 +623,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="10"/>
       <c r="C6" s="4" t="s">
@@ -636,7 +631,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4" t="s">
@@ -644,7 +639,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
@@ -652,7 +647,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
@@ -660,7 +655,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
@@ -668,7 +663,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="10"/>
       <c r="C11" s="4" t="s">
@@ -676,7 +671,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
@@ -684,7 +679,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
@@ -692,7 +687,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
@@ -700,9 +695,9 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>18</v>
@@ -712,7 +707,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
@@ -720,7 +715,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="10"/>
       <c r="C17" s="4" t="s">
@@ -728,7 +723,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="4" t="s">
@@ -736,7 +731,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="10"/>
       <c r="C19" s="4" t="s">
@@ -744,7 +739,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
       <c r="C20" s="4" t="s">
@@ -752,7 +747,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
       <c r="C21" s="4" t="s">
@@ -760,7 +755,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
@@ -768,7 +763,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="10"/>
       <c r="C23" s="4" t="s">
@@ -776,7 +771,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="10"/>
       <c r="C24" s="4" t="s">
@@ -784,7 +779,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="10"/>
       <c r="C25" s="4" t="s">
@@ -792,91 +787,91 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="10"/>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="10"/>
       <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="10"/>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="10"/>
       <c r="C31" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="10"/>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="10"/>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="10"/>
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="6"/>
     </row>
